--- a/Assets/ExcelData/Excel/Data.xlsx
+++ b/Assets/ExcelData/Excel/Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24102"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3EEBB72-ADCE-4452-9DCB-122451AD637D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B101CCF-52B0-4039-97DB-4FA016141731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -114,8 +114,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Name_Eng</t>
+  </si>
+  <si>
+    <t>Name_Kor</t>
+  </si>
+  <si>
     <t>Info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>키보드</t>
@@ -126,8 +131,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>기본 형태 전방에 키보드를 휘둘러 공격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Keyborad</t>
+  </si>
+  <si>
+    <t>키보드</t>
+  </si>
+  <si>
+    <t>키(key)가 일정한 규격에 따라 배열되어 있는 입력 장치.</t>
   </si>
   <si>
     <t>사과</t>
@@ -138,8 +148,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>적에게 닿으면 터지는 투사체 사과를 던짐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>사과</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사과나무의 열매.
+</t>
   </si>
   <si>
     <t>나무</t>
@@ -150,17 +166,28 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>바닥에 심고 특정키를 누르면 나무가 
-자람(사이퍼 감옥과 같음,초당 4데미지)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>나무</t>
+  </si>
+  <si>
+    <t xml:space="preserve">줄기나 가지가 목질로 된 여러해살이 식물.
+</t>
   </si>
   <si>
     <t>바람</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0.1초마다 0.4데미지를 줌 공격할때는 이동 불가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>바람</t>
+  </si>
+  <si>
+    <t xml:space="preserve">기압의 변화 또는 사람이나 기계에 의하여 일어나는 공기의 움직임.
+</t>
   </si>
   <si>
     <t>아이스크림</t>
@@ -171,33 +198,53 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>체력을 +3시켜준다.(최대 2회,전 무기 유지)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Icecream</t>
+  </si>
+  <si>
+    <t>아이스크림</t>
+  </si>
+  <si>
+    <t>우유, 달걀, 향료, 설탕 따위를 넣어 크림 상태로 얼린 것.</t>
   </si>
   <si>
     <t>램프</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>바닥에 닿으면 바닥에 불이 붙음(초당 3데미지)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Lamp</t>
+  </si>
+  <si>
+    <t>램프</t>
+  </si>
+  <si>
+    <t>기계의 작동 상태나 과정 따위를 나타내 보이는 등.</t>
   </si>
   <si>
     <t>젤리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>기본스택 상위호환 사거리 증가+데미지 증가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Jelly</t>
+  </si>
+  <si>
+    <t>젤리</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	어육류나 과실류의 교질분(膠質分)을 채취한 맑은 즙. 또는 이것에 젤라틴을 넣어 반고체 상태로 응고시킨 것.
+</t>
   </si>
   <si>
     <t>무지개</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어 주위에 무지개가 생김
-(무지개에 닿으면 초당 7데미지)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Rainbow</t>
+  </si>
+  <si>
+    <t>무지개</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	공중에 떠 있는 물방울이 햇빛을 받아 나타나는, 반원 모양의 일곱 빛깔의 줄. 흔히 비가 그친 뒤 태양의 반대쪽에서 나타난다. 보통 바깥쪽에서부터 빨강, 주황, 노랑, 초록, 파랑, 남색, 보라의 차례이다.</t>
   </si>
   <si>
     <t>풍선</t>
@@ -208,33 +255,46 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>공격시 그 자리에서 3초뒤에 터짐
-범위안에 있는 적과 플레이어는 5데미지를 받음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Bollon</t>
+  </si>
+  <si>
+    <t>풍선</t>
+  </si>
+  <si>
+    <t>밀폐된 커다란 주머니에 수소나 헬륨 따위의 공기보다 가벼운 기체를 넣어, 그 부양력으로 공중에 높이 올라가도록 만든 물건. 기상 관측이나 광고 따위에 쓴다.</t>
   </si>
   <si>
     <t>우산</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>우산을 펼쳐 방어 할 수 있음
-방어할때는 데미지를 받지 않음(공격 가능)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Umbrella</t>
+  </si>
+  <si>
+    <t>우산</t>
+  </si>
+  <si>
+    <t>펴고 접을 수 있어 비가 올 때에 펴서 손에 들고 머리 위를 가린다.</t>
   </si>
   <si>
     <t>종</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>유도되는 음표가 날라가서 공격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Bell</t>
+  </si>
+  <si>
+    <t>종</t>
+  </si>
+  <si>
+    <t>어떤 시간 또는 시각을 알리거나 신호를 하기 위하여 치거나 흔들어 소리를 내는 금속 기구. 매달고 때려 울리는 범종(梵鐘)과 안에 추가 달려 있어 그 안의 벽을 때려 소리를 내는 탁(鐸), 그리고 소형으로 된 방울 따위가 있다.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,8 +331,20 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="나눔바른고딕 옛한글"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6881A1"/>
+      <name val="나눔바른고딕 옛한글"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,6 +381,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -337,16 +415,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -356,6 +431,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -892,37 +978,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:25" ht="50.25" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:25" ht="50.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -930,16 +1040,40 @@
       <c r="D2" s="1">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:25" ht="50.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>5</v>
@@ -947,16 +1081,40 @@
       <c r="D3" s="1">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="132">
+    <row r="4" spans="1:25" ht="50.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
@@ -964,16 +1122,40 @@
       <c r="D4" s="1">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+    </row>
+    <row r="5" spans="1:25" ht="50.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C5" s="1">
         <v>0.4</v>
@@ -981,16 +1163,40 @@
       <c r="D5" s="1">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:25" ht="50.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -998,16 +1204,40 @@
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+    </row>
+    <row r="7" spans="1:25" ht="50.25" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -1015,16 +1245,40 @@
       <c r="D7" s="1">
         <v>10</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:25" ht="50.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
@@ -1032,16 +1286,40 @@
       <c r="D8" s="1">
         <v>15</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="132">
+    <row r="9" spans="1:25" ht="50.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
@@ -1049,16 +1327,40 @@
       <c r="D9" s="1">
         <v>3</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="148.5">
+    <row r="10" spans="1:25" ht="50.25" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>43</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -1066,16 +1368,40 @@
       <c r="D10" s="1">
         <v>5</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
     </row>
-    <row r="11" spans="1:5" ht="148.5">
+    <row r="11" spans="1:25" ht="50.25" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -1083,16 +1409,40 @@
       <c r="D11" s="1">
         <v>15</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:25" ht="50.25" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -1100,9 +1450,33 @@
       <c r="D12" s="1">
         <v>8</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ExcelData/Excel/Data.xlsx
+++ b/Assets/ExcelData/Excel/Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24102"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B101CCF-52B0-4039-97DB-4FA016141731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BBA8E96-DA87-40CC-AEA0-7C7725E9C38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,22 +96,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
   <si>
     <t>Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>pattern</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>ATK</t>
+  </si>
+  <si>
+    <t>HP</t>
   </si>
   <si>
     <t>Name_Eng</t>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>Info</t>
+  </si>
+  <si>
+    <t>Keyword_For_Hard</t>
   </si>
   <si>
     <t>키보드</t>
@@ -140,6 +140,9 @@
     <t>키(key)가 일정한 규격에 따라 배열되어 있는 입력 장치.</t>
   </si>
   <si>
+    <t>키(key)</t>
+  </si>
+  <si>
     <t>사과</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -158,6 +161,9 @@
 </t>
   </si>
   <si>
+    <t>사과나무</t>
+  </si>
+  <si>
     <t>나무</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -176,6 +182,9 @@
 </t>
   </si>
   <si>
+    <t>줄기</t>
+  </si>
+  <si>
     <t>바람</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -190,6 +199,9 @@
 </t>
   </si>
   <si>
+    <t>공기</t>
+  </si>
+  <si>
     <t>아이스크림</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -207,6 +219,9 @@
     <t>우유, 달걀, 향료, 설탕 따위를 넣어 크림 상태로 얼린 것.</t>
   </si>
   <si>
+    <t>크림</t>
+  </si>
+  <si>
     <t>램프</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -220,6 +235,9 @@
     <t>기계의 작동 상태나 과정 따위를 나타내 보이는 등.</t>
   </si>
   <si>
+    <t>상태</t>
+  </si>
+  <si>
     <t>젤리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -234,6 +252,9 @@
 </t>
   </si>
   <si>
+    <t>과실류</t>
+  </si>
+  <si>
     <t>무지개</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -247,6 +268,9 @@
     <t xml:space="preserve">	공중에 떠 있는 물방울이 햇빛을 받아 나타나는, 반원 모양의 일곱 빛깔의 줄. 흔히 비가 그친 뒤 태양의 반대쪽에서 나타난다. 보통 바깥쪽에서부터 빨강, 주황, 노랑, 초록, 파랑, 남색, 보라의 차례이다.</t>
   </si>
   <si>
+    <t>물방울</t>
+  </si>
+  <si>
     <t>풍선</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -264,6 +288,9 @@
     <t>밀폐된 커다란 주머니에 수소나 헬륨 따위의 공기보다 가벼운 기체를 넣어, 그 부양력으로 공중에 높이 올라가도록 만든 물건. 기상 관측이나 광고 따위에 쓴다.</t>
   </si>
   <si>
+    <t>가벼운</t>
+  </si>
+  <si>
     <t>우산</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -277,6 +304,9 @@
     <t>펴고 접을 수 있어 비가 올 때에 펴서 손에 들고 머리 위를 가린다.</t>
   </si>
   <si>
+    <t>비</t>
+  </si>
+  <si>
     <t>종</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -288,6 +318,9 @@
   </si>
   <si>
     <t>어떤 시간 또는 시각을 알리거나 신호를 하기 위하여 치거나 흔들어 소리를 내는 금속 기구. 매달고 때려 울리는 범종(梵鐘)과 안에 추가 달려 있어 그 안의 벽을 때려 소리를 내는 탁(鐸), 그리고 소형으로 된 방울 따위가 있다.</t>
+  </si>
+  <si>
+    <t>신호, 금속</t>
   </si>
 </sst>
 </file>
@@ -980,11 +1013,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:Y12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="176.125" customWidth="1"/>
+    <col min="8" max="8" width="34" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="50.25" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -1008,7 +1047,9 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -1029,10 +1070,10 @@
     </row>
     <row r="2" spans="1:25" ht="50.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1041,15 +1082,17 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -1070,10 +1113,10 @@
     </row>
     <row r="3" spans="1:25" ht="50.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1">
         <v>5</v>
@@ -1082,15 +1125,17 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -1111,10 +1156,10 @@
     </row>
     <row r="4" spans="1:25" ht="50.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
@@ -1123,15 +1168,17 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -1152,10 +1199,10 @@
     </row>
     <row r="5" spans="1:25" ht="50.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
         <v>0.4</v>
@@ -1164,15 +1211,17 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -1193,10 +1242,10 @@
     </row>
     <row r="6" spans="1:25" ht="50.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -1205,15 +1254,17 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -1234,10 +1285,10 @@
     </row>
     <row r="7" spans="1:25" ht="50.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -1246,15 +1297,17 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -1275,10 +1328,10 @@
     </row>
     <row r="8" spans="1:25" ht="50.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
@@ -1287,15 +1340,17 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -1316,10 +1371,10 @@
     </row>
     <row r="9" spans="1:25" ht="50.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
@@ -1328,15 +1383,17 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -1357,10 +1414,10 @@
     </row>
     <row r="10" spans="1:25" ht="50.25" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -1369,15 +1426,17 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -1398,10 +1457,10 @@
     </row>
     <row r="11" spans="1:25" ht="50.25" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -1410,15 +1469,17 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -1439,10 +1500,10 @@
     </row>
     <row r="12" spans="1:25" ht="50.25" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -1451,15 +1512,17 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
